--- a/2020 Summer/CSE 5321 Software Testing/Homework 2/Homework-02.xlsx
+++ b/2020 Summer/CSE 5321 Software Testing/Homework 2/Homework-02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Documents\Academic\UTA\2020 Summer\CSE 5321 Software Testing\Homework 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C196E29F-615B-4011-9301-2C73D3FEC6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCB2A33-64A8-4FE0-83B6-6DA6A224FDA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B461B594-3CBF-4CA2-8EE2-CC471F247456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B461B594-3CBF-4CA2-8EE2-CC471F247456}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
@@ -2131,12 +2131,386 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2164,15 +2538,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2186,21 +2551,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2233,33 +2583,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2281,26 +2604,73 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2308,401 +2678,31 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2866,8 +2866,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>89589</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
@@ -2886,7 +2886,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -3290,7 +3290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399F2B76-79BC-4695-9EE8-490EE587DC42}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -3304,996 +3304,996 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="115" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="163">
+      <c r="A5" s="61">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="186" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="187" t="s">
+      <c r="C5" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="189"/>
-      <c r="G5" s="189"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="188" t="s">
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="190"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
     </row>
     <row r="6" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
-      <c r="B6" s="191"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="194" t="s">
+      <c r="B6" s="121"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="195" t="s">
+      <c r="F6" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="195" t="s">
+      <c r="G6" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="196" t="s">
+      <c r="H6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="194" t="s">
+      <c r="I6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="195" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="196" t="s">
+      <c r="K6" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
-      <c r="B7" s="197">
+      <c r="B7" s="76">
         <v>1</v>
       </c>
-      <c r="C7" s="197" t="s">
+      <c r="C7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="198" t="s">
+      <c r="D7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="199">
-        <v>0</v>
-      </c>
-      <c r="F7" s="197">
-        <v>0</v>
-      </c>
-      <c r="G7" s="197">
-        <v>0</v>
-      </c>
-      <c r="H7" s="200">
-        <v>0</v>
-      </c>
-      <c r="I7" s="199">
-        <v>0</v>
-      </c>
-      <c r="J7" s="197">
-        <v>0</v>
-      </c>
-      <c r="K7" s="197">
-        <v>0</v>
-      </c>
-      <c r="L7" s="200">
+      <c r="E7" s="78">
+        <v>0</v>
+      </c>
+      <c r="F7" s="76">
+        <v>0</v>
+      </c>
+      <c r="G7" s="76">
+        <v>0</v>
+      </c>
+      <c r="H7" s="79">
+        <v>0</v>
+      </c>
+      <c r="I7" s="78">
+        <v>0</v>
+      </c>
+      <c r="J7" s="76">
+        <v>0</v>
+      </c>
+      <c r="K7" s="76">
+        <v>0</v>
+      </c>
+      <c r="L7" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
-      <c r="B8" s="201">
+      <c r="B8" s="80">
         <v>2</v>
       </c>
-      <c r="C8" s="201" t="s">
+      <c r="C8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="202" t="s">
+      <c r="D8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="203">
+      <c r="E8" s="82">
         <v>1</v>
       </c>
-      <c r="F8" s="201">
-        <v>0</v>
-      </c>
-      <c r="G8" s="201">
-        <v>0</v>
-      </c>
-      <c r="H8" s="204">
-        <v>0</v>
-      </c>
-      <c r="I8" s="203">
-        <v>0</v>
-      </c>
-      <c r="J8" s="201">
-        <v>0</v>
-      </c>
-      <c r="K8" s="201">
-        <v>0</v>
-      </c>
-      <c r="L8" s="204">
+      <c r="F8" s="80">
+        <v>0</v>
+      </c>
+      <c r="G8" s="80">
+        <v>0</v>
+      </c>
+      <c r="H8" s="83">
+        <v>0</v>
+      </c>
+      <c r="I8" s="82">
+        <v>0</v>
+      </c>
+      <c r="J8" s="80">
+        <v>0</v>
+      </c>
+      <c r="K8" s="80">
+        <v>0</v>
+      </c>
+      <c r="L8" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
-      <c r="B9" s="201">
+      <c r="B9" s="80">
         <v>3</v>
       </c>
-      <c r="C9" s="201" t="s">
+      <c r="C9" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="202" t="s">
+      <c r="D9" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="203">
-        <v>0</v>
-      </c>
-      <c r="F9" s="201">
+      <c r="E9" s="82">
+        <v>0</v>
+      </c>
+      <c r="F9" s="80">
         <v>1</v>
       </c>
-      <c r="G9" s="201">
-        <v>0</v>
-      </c>
-      <c r="H9" s="204">
-        <v>0</v>
-      </c>
-      <c r="I9" s="203">
+      <c r="G9" s="80">
+        <v>0</v>
+      </c>
+      <c r="H9" s="83">
+        <v>0</v>
+      </c>
+      <c r="I9" s="82">
         <v>1</v>
       </c>
-      <c r="J9" s="201">
-        <v>0</v>
-      </c>
-      <c r="K9" s="201">
+      <c r="J9" s="80">
+        <v>0</v>
+      </c>
+      <c r="K9" s="80">
         <v>1</v>
       </c>
-      <c r="L9" s="204">
+      <c r="L9" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
-      <c r="B10" s="201">
+      <c r="B10" s="80">
         <v>4</v>
       </c>
-      <c r="C10" s="201" t="s">
+      <c r="C10" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="202" t="s">
+      <c r="D10" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="203">
-        <v>0</v>
-      </c>
-      <c r="F10" s="201">
-        <v>0</v>
-      </c>
-      <c r="G10" s="201">
+      <c r="E10" s="82">
+        <v>0</v>
+      </c>
+      <c r="F10" s="80">
+        <v>0</v>
+      </c>
+      <c r="G10" s="80">
         <v>1</v>
       </c>
-      <c r="H10" s="204">
-        <v>0</v>
-      </c>
-      <c r="I10" s="203">
+      <c r="H10" s="83">
+        <v>0</v>
+      </c>
+      <c r="I10" s="82">
         <v>1</v>
       </c>
-      <c r="J10" s="201">
-        <v>0</v>
-      </c>
-      <c r="K10" s="201">
-        <v>0</v>
-      </c>
-      <c r="L10" s="204">
+      <c r="J10" s="80">
+        <v>0</v>
+      </c>
+      <c r="K10" s="80">
+        <v>0</v>
+      </c>
+      <c r="L10" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
-      <c r="B11" s="201">
+      <c r="B11" s="80">
         <v>5</v>
       </c>
-      <c r="C11" s="201" t="s">
+      <c r="C11" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="202" t="s">
+      <c r="D11" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="203">
-        <v>0</v>
-      </c>
-      <c r="F11" s="201">
-        <v>0</v>
-      </c>
-      <c r="G11" s="201">
-        <v>0</v>
-      </c>
-      <c r="H11" s="204">
+      <c r="E11" s="82">
+        <v>0</v>
+      </c>
+      <c r="F11" s="80">
+        <v>0</v>
+      </c>
+      <c r="G11" s="80">
+        <v>0</v>
+      </c>
+      <c r="H11" s="83">
         <v>1</v>
       </c>
-      <c r="I11" s="203">
-        <v>0</v>
-      </c>
-      <c r="J11" s="201">
-        <v>0</v>
-      </c>
-      <c r="K11" s="201">
-        <v>0</v>
-      </c>
-      <c r="L11" s="204">
+      <c r="I11" s="82">
+        <v>0</v>
+      </c>
+      <c r="J11" s="80">
+        <v>0</v>
+      </c>
+      <c r="K11" s="80">
+        <v>0</v>
+      </c>
+      <c r="L11" s="83">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
-      <c r="B12" s="205">
+      <c r="B12" s="84">
         <v>6</v>
       </c>
-      <c r="C12" s="205" t="s">
+      <c r="C12" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="206" t="s">
+      <c r="D12" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="207">
+      <c r="E12" s="86">
         <v>1</v>
       </c>
-      <c r="F12" s="205">
-        <v>0</v>
-      </c>
-      <c r="G12" s="205">
-        <v>0</v>
-      </c>
-      <c r="H12" s="208">
-        <v>0</v>
-      </c>
-      <c r="I12" s="207">
+      <c r="F12" s="84">
+        <v>0</v>
+      </c>
+      <c r="G12" s="84">
+        <v>0</v>
+      </c>
+      <c r="H12" s="87">
+        <v>0</v>
+      </c>
+      <c r="I12" s="86">
         <v>1</v>
       </c>
-      <c r="J12" s="205">
-        <v>0</v>
-      </c>
-      <c r="K12" s="205">
-        <v>0</v>
-      </c>
-      <c r="L12" s="208">
+      <c r="J12" s="84">
+        <v>0</v>
+      </c>
+      <c r="K12" s="84">
+        <v>0</v>
+      </c>
+      <c r="L12" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="B13" s="205">
+      <c r="B13" s="84">
         <v>7</v>
       </c>
-      <c r="C13" s="205" t="s">
+      <c r="C13" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="206" t="s">
+      <c r="D13" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="207">
-        <v>0</v>
-      </c>
-      <c r="F13" s="205">
+      <c r="E13" s="86">
+        <v>0</v>
+      </c>
+      <c r="F13" s="84">
         <v>1</v>
       </c>
-      <c r="G13" s="205">
-        <v>0</v>
-      </c>
-      <c r="H13" s="208">
-        <v>0</v>
-      </c>
-      <c r="I13" s="207">
+      <c r="G13" s="84">
+        <v>0</v>
+      </c>
+      <c r="H13" s="87">
+        <v>0</v>
+      </c>
+      <c r="I13" s="86">
         <v>1</v>
       </c>
-      <c r="J13" s="205">
-        <v>0</v>
-      </c>
-      <c r="K13" s="205">
-        <v>0</v>
-      </c>
-      <c r="L13" s="208">
+      <c r="J13" s="84">
+        <v>0</v>
+      </c>
+      <c r="K13" s="84">
+        <v>0</v>
+      </c>
+      <c r="L13" s="87">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="205">
-        <v>8</v>
-      </c>
-      <c r="C14" s="205" t="s">
+      <c r="B14" s="84">
+        <v>8</v>
+      </c>
+      <c r="C14" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="206" t="s">
+      <c r="D14" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="207">
-        <v>0</v>
-      </c>
-      <c r="F14" s="205">
-        <v>0</v>
-      </c>
-      <c r="G14" s="205">
+      <c r="E14" s="86">
+        <v>0</v>
+      </c>
+      <c r="F14" s="84">
+        <v>0</v>
+      </c>
+      <c r="G14" s="84">
         <v>1</v>
       </c>
-      <c r="H14" s="208">
-        <v>0</v>
-      </c>
-      <c r="I14" s="207">
-        <v>0</v>
-      </c>
-      <c r="J14" s="205">
-        <v>0</v>
-      </c>
-      <c r="K14" s="205">
-        <v>0</v>
-      </c>
-      <c r="L14" s="208">
+      <c r="H14" s="87">
+        <v>0</v>
+      </c>
+      <c r="I14" s="86">
+        <v>0</v>
+      </c>
+      <c r="J14" s="84">
+        <v>0</v>
+      </c>
+      <c r="K14" s="84">
+        <v>0</v>
+      </c>
+      <c r="L14" s="87">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
-      <c r="B15" s="205">
+      <c r="B15" s="84">
         <v>9</v>
       </c>
-      <c r="C15" s="205" t="s">
+      <c r="C15" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="206" t="s">
+      <c r="D15" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="207">
-        <v>0</v>
-      </c>
-      <c r="F15" s="205">
-        <v>0</v>
-      </c>
-      <c r="G15" s="205">
-        <v>0</v>
-      </c>
-      <c r="H15" s="208">
+      <c r="E15" s="86">
+        <v>0</v>
+      </c>
+      <c r="F15" s="84">
+        <v>0</v>
+      </c>
+      <c r="G15" s="84">
+        <v>0</v>
+      </c>
+      <c r="H15" s="87">
         <v>1</v>
       </c>
-      <c r="I15" s="207">
+      <c r="I15" s="86">
         <v>1</v>
       </c>
-      <c r="J15" s="205">
-        <v>0</v>
-      </c>
-      <c r="K15" s="205">
-        <v>0</v>
-      </c>
-      <c r="L15" s="208">
+      <c r="J15" s="84">
+        <v>0</v>
+      </c>
+      <c r="K15" s="84">
+        <v>0</v>
+      </c>
+      <c r="L15" s="87">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
-      <c r="B16" s="209">
+      <c r="B16" s="88">
         <v>10</v>
       </c>
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="210" t="s">
+      <c r="D16" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="211">
+      <c r="E16" s="90">
         <v>1</v>
       </c>
-      <c r="F16" s="209">
-        <v>0</v>
-      </c>
-      <c r="G16" s="209">
-        <v>0</v>
-      </c>
-      <c r="H16" s="212">
-        <v>0</v>
-      </c>
-      <c r="I16" s="211">
+      <c r="F16" s="88">
+        <v>0</v>
+      </c>
+      <c r="G16" s="88">
+        <v>0</v>
+      </c>
+      <c r="H16" s="91">
+        <v>0</v>
+      </c>
+      <c r="I16" s="90">
         <v>1</v>
       </c>
-      <c r="J16" s="209">
+      <c r="J16" s="88">
         <v>1</v>
       </c>
-      <c r="K16" s="209">
-        <v>0</v>
-      </c>
-      <c r="L16" s="212">
+      <c r="K16" s="88">
+        <v>0</v>
+      </c>
+      <c r="L16" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
-      <c r="B17" s="209">
+      <c r="B17" s="88">
         <v>11</v>
       </c>
-      <c r="C17" s="209" t="s">
+      <c r="C17" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="210" t="s">
+      <c r="D17" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="211">
-        <v>0</v>
-      </c>
-      <c r="F17" s="209">
+      <c r="E17" s="90">
+        <v>0</v>
+      </c>
+      <c r="F17" s="88">
         <v>1</v>
       </c>
-      <c r="G17" s="209">
-        <v>0</v>
-      </c>
-      <c r="H17" s="212">
-        <v>0</v>
-      </c>
-      <c r="I17" s="211">
+      <c r="G17" s="88">
+        <v>0</v>
+      </c>
+      <c r="H17" s="91">
+        <v>0</v>
+      </c>
+      <c r="I17" s="90">
         <v>1</v>
       </c>
-      <c r="J17" s="209">
-        <v>0</v>
-      </c>
-      <c r="K17" s="209">
-        <v>0</v>
-      </c>
-      <c r="L17" s="212">
+      <c r="J17" s="88">
+        <v>0</v>
+      </c>
+      <c r="K17" s="88">
+        <v>0</v>
+      </c>
+      <c r="L17" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
-      <c r="B18" s="209">
+      <c r="B18" s="88">
         <v>12</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="210" t="s">
+      <c r="D18" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="211">
-        <v>0</v>
-      </c>
-      <c r="F18" s="209">
-        <v>0</v>
-      </c>
-      <c r="G18" s="209">
+      <c r="E18" s="90">
+        <v>0</v>
+      </c>
+      <c r="F18" s="88">
+        <v>0</v>
+      </c>
+      <c r="G18" s="88">
         <v>1</v>
       </c>
-      <c r="H18" s="212">
-        <v>0</v>
-      </c>
-      <c r="I18" s="211">
+      <c r="H18" s="91">
+        <v>0</v>
+      </c>
+      <c r="I18" s="90">
         <v>1</v>
       </c>
-      <c r="J18" s="209">
-        <v>0</v>
-      </c>
-      <c r="K18" s="209">
-        <v>0</v>
-      </c>
-      <c r="L18" s="212">
+      <c r="J18" s="88">
+        <v>0</v>
+      </c>
+      <c r="K18" s="88">
+        <v>0</v>
+      </c>
+      <c r="L18" s="91">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
-      <c r="B19" s="209">
+      <c r="B19" s="88">
         <v>13</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="210" t="s">
+      <c r="D19" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="211">
-        <v>0</v>
-      </c>
-      <c r="F19" s="209">
-        <v>0</v>
-      </c>
-      <c r="G19" s="209">
-        <v>0</v>
-      </c>
-      <c r="H19" s="212">
+      <c r="E19" s="90">
+        <v>0</v>
+      </c>
+      <c r="F19" s="88">
+        <v>0</v>
+      </c>
+      <c r="G19" s="88">
+        <v>0</v>
+      </c>
+      <c r="H19" s="91">
         <v>1</v>
       </c>
-      <c r="I19" s="211">
+      <c r="I19" s="90">
         <v>1</v>
       </c>
-      <c r="J19" s="209">
-        <v>0</v>
-      </c>
-      <c r="K19" s="209">
-        <v>0</v>
-      </c>
-      <c r="L19" s="212">
+      <c r="J19" s="88">
+        <v>0</v>
+      </c>
+      <c r="K19" s="88">
+        <v>0</v>
+      </c>
+      <c r="L19" s="91">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
-      <c r="B20" s="213">
+      <c r="B20" s="92">
         <v>14</v>
       </c>
-      <c r="C20" s="213" t="s">
+      <c r="C20" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="214" t="s">
+      <c r="D20" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="215">
+      <c r="E20" s="94">
         <v>1</v>
       </c>
-      <c r="F20" s="213">
-        <v>0</v>
-      </c>
-      <c r="G20" s="213">
-        <v>0</v>
-      </c>
-      <c r="H20" s="216">
-        <v>0</v>
-      </c>
-      <c r="I20" s="215">
+      <c r="F20" s="92">
+        <v>0</v>
+      </c>
+      <c r="G20" s="92">
+        <v>0</v>
+      </c>
+      <c r="H20" s="95">
+        <v>0</v>
+      </c>
+      <c r="I20" s="94">
         <v>1</v>
       </c>
-      <c r="J20" s="213">
-        <v>0</v>
-      </c>
-      <c r="K20" s="213">
-        <v>0</v>
-      </c>
-      <c r="L20" s="216">
+      <c r="J20" s="92">
+        <v>0</v>
+      </c>
+      <c r="K20" s="92">
+        <v>0</v>
+      </c>
+      <c r="L20" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
-      <c r="B21" s="213">
+      <c r="B21" s="92">
         <v>15</v>
       </c>
-      <c r="C21" s="213" t="s">
+      <c r="C21" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="214" t="s">
+      <c r="D21" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="215">
-        <v>0</v>
-      </c>
-      <c r="F21" s="213">
+      <c r="E21" s="94">
+        <v>0</v>
+      </c>
+      <c r="F21" s="92">
         <v>1</v>
       </c>
-      <c r="G21" s="213">
-        <v>0</v>
-      </c>
-      <c r="H21" s="216">
-        <v>0</v>
-      </c>
-      <c r="I21" s="215">
+      <c r="G21" s="92">
+        <v>0</v>
+      </c>
+      <c r="H21" s="95">
+        <v>0</v>
+      </c>
+      <c r="I21" s="94">
         <v>1</v>
       </c>
-      <c r="J21" s="213">
+      <c r="J21" s="92">
         <v>1</v>
       </c>
-      <c r="K21" s="213">
-        <v>0</v>
-      </c>
-      <c r="L21" s="216">
+      <c r="K21" s="92">
+        <v>0</v>
+      </c>
+      <c r="L21" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
-      <c r="B22" s="213">
+      <c r="B22" s="92">
         <v>16</v>
       </c>
-      <c r="C22" s="213" t="s">
+      <c r="C22" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="214" t="s">
+      <c r="D22" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="215">
-        <v>0</v>
-      </c>
-      <c r="F22" s="213">
-        <v>0</v>
-      </c>
-      <c r="G22" s="213">
+      <c r="E22" s="94">
+        <v>0</v>
+      </c>
+      <c r="F22" s="92">
+        <v>0</v>
+      </c>
+      <c r="G22" s="92">
         <v>1</v>
       </c>
-      <c r="H22" s="216">
-        <v>0</v>
-      </c>
-      <c r="I22" s="215">
+      <c r="H22" s="95">
+        <v>0</v>
+      </c>
+      <c r="I22" s="94">
         <v>1</v>
       </c>
-      <c r="J22" s="213">
+      <c r="J22" s="92">
         <v>1</v>
       </c>
-      <c r="K22" s="213">
-        <v>0</v>
-      </c>
-      <c r="L22" s="216">
+      <c r="K22" s="92">
+        <v>0</v>
+      </c>
+      <c r="L22" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
-      <c r="B23" s="213">
+      <c r="B23" s="92">
         <v>17</v>
       </c>
-      <c r="C23" s="213" t="s">
+      <c r="C23" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="214" t="s">
+      <c r="D23" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="215">
-        <v>0</v>
-      </c>
-      <c r="F23" s="213">
-        <v>0</v>
-      </c>
-      <c r="G23" s="213">
-        <v>0</v>
-      </c>
-      <c r="H23" s="216">
+      <c r="E23" s="94">
+        <v>0</v>
+      </c>
+      <c r="F23" s="92">
+        <v>0</v>
+      </c>
+      <c r="G23" s="92">
+        <v>0</v>
+      </c>
+      <c r="H23" s="95">
         <v>1</v>
       </c>
-      <c r="I23" s="215">
+      <c r="I23" s="94">
         <v>1</v>
       </c>
-      <c r="J23" s="213">
+      <c r="J23" s="92">
         <v>1</v>
       </c>
-      <c r="K23" s="213">
-        <v>0</v>
-      </c>
-      <c r="L23" s="216">
+      <c r="K23" s="92">
+        <v>0</v>
+      </c>
+      <c r="L23" s="95">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
-      <c r="B24" s="217">
+      <c r="B24" s="96">
         <v>18</v>
       </c>
-      <c r="C24" s="217" t="s">
+      <c r="C24" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="218" t="s">
+      <c r="D24" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="219">
+      <c r="E24" s="98">
         <v>1</v>
       </c>
-      <c r="F24" s="217">
-        <v>0</v>
-      </c>
-      <c r="G24" s="217">
-        <v>0</v>
-      </c>
-      <c r="H24" s="220">
-        <v>0</v>
-      </c>
-      <c r="I24" s="219">
+      <c r="F24" s="96">
+        <v>0</v>
+      </c>
+      <c r="G24" s="96">
+        <v>0</v>
+      </c>
+      <c r="H24" s="99">
+        <v>0</v>
+      </c>
+      <c r="I24" s="98">
         <v>1</v>
       </c>
-      <c r="J24" s="217">
-        <v>0</v>
-      </c>
-      <c r="K24" s="217">
-        <v>0</v>
-      </c>
-      <c r="L24" s="220">
+      <c r="J24" s="96">
+        <v>0</v>
+      </c>
+      <c r="K24" s="96">
+        <v>0</v>
+      </c>
+      <c r="L24" s="99">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
-      <c r="B25" s="217">
+      <c r="B25" s="96">
         <v>19</v>
       </c>
-      <c r="C25" s="217" t="s">
+      <c r="C25" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="218" t="s">
+      <c r="D25" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="219">
-        <v>0</v>
-      </c>
-      <c r="F25" s="217">
+      <c r="E25" s="98">
+        <v>0</v>
+      </c>
+      <c r="F25" s="96">
         <v>1</v>
       </c>
-      <c r="G25" s="217">
-        <v>0</v>
-      </c>
-      <c r="H25" s="220">
-        <v>0</v>
-      </c>
-      <c r="I25" s="219">
+      <c r="G25" s="96">
+        <v>0</v>
+      </c>
+      <c r="H25" s="99">
+        <v>0</v>
+      </c>
+      <c r="I25" s="98">
         <v>1</v>
       </c>
-      <c r="J25" s="217">
-        <v>0</v>
-      </c>
-      <c r="K25" s="217">
-        <v>0</v>
-      </c>
-      <c r="L25" s="220">
+      <c r="J25" s="96">
+        <v>0</v>
+      </c>
+      <c r="K25" s="96">
+        <v>0</v>
+      </c>
+      <c r="L25" s="99">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
-      <c r="B26" s="217">
+      <c r="B26" s="96">
         <v>20</v>
       </c>
-      <c r="C26" s="217" t="s">
+      <c r="C26" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="218" t="s">
+      <c r="D26" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="219">
-        <v>0</v>
-      </c>
-      <c r="F26" s="217">
-        <v>0</v>
-      </c>
-      <c r="G26" s="217">
+      <c r="E26" s="98">
+        <v>0</v>
+      </c>
+      <c r="F26" s="96">
+        <v>0</v>
+      </c>
+      <c r="G26" s="96">
         <v>1</v>
       </c>
-      <c r="H26" s="220">
-        <v>0</v>
-      </c>
-      <c r="I26" s="219">
+      <c r="H26" s="99">
+        <v>0</v>
+      </c>
+      <c r="I26" s="98">
         <v>1</v>
       </c>
-      <c r="J26" s="217">
-        <v>0</v>
-      </c>
-      <c r="K26" s="217">
-        <v>0</v>
-      </c>
-      <c r="L26" s="220">
+      <c r="J26" s="96">
+        <v>0</v>
+      </c>
+      <c r="K26" s="96">
+        <v>0</v>
+      </c>
+      <c r="L26" s="99">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
-      <c r="B27" s="217">
+      <c r="B27" s="96">
         <v>21</v>
       </c>
-      <c r="C27" s="217" t="s">
+      <c r="C27" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="218" t="s">
+      <c r="D27" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="219">
-        <v>0</v>
-      </c>
-      <c r="F27" s="217">
-        <v>0</v>
-      </c>
-      <c r="G27" s="217">
-        <v>0</v>
-      </c>
-      <c r="H27" s="220">
+      <c r="E27" s="98">
+        <v>0</v>
+      </c>
+      <c r="F27" s="96">
+        <v>0</v>
+      </c>
+      <c r="G27" s="96">
+        <v>0</v>
+      </c>
+      <c r="H27" s="99">
         <v>1</v>
       </c>
-      <c r="I27" s="219">
+      <c r="I27" s="98">
         <v>1</v>
       </c>
-      <c r="J27" s="217">
-        <v>0</v>
-      </c>
-      <c r="K27" s="217">
-        <v>0</v>
-      </c>
-      <c r="L27" s="220">
+      <c r="J27" s="96">
+        <v>0</v>
+      </c>
+      <c r="K27" s="96">
+        <v>0</v>
+      </c>
+      <c r="L27" s="99">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
-      <c r="B28" s="221">
+      <c r="B28" s="100">
         <v>22</v>
       </c>
-      <c r="C28" s="221" t="s">
+      <c r="C28" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="222" t="s">
+      <c r="D28" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="223">
+      <c r="E28" s="102">
         <v>1</v>
       </c>
-      <c r="F28" s="221">
-        <v>0</v>
-      </c>
-      <c r="G28" s="221">
-        <v>0</v>
-      </c>
-      <c r="H28" s="224">
-        <v>0</v>
-      </c>
-      <c r="I28" s="223">
+      <c r="F28" s="100">
+        <v>0</v>
+      </c>
+      <c r="G28" s="100">
+        <v>0</v>
+      </c>
+      <c r="H28" s="103">
+        <v>0</v>
+      </c>
+      <c r="I28" s="102">
         <v>1</v>
       </c>
-      <c r="J28" s="221">
-        <v>0</v>
-      </c>
-      <c r="K28" s="221">
+      <c r="J28" s="100">
+        <v>0</v>
+      </c>
+      <c r="K28" s="100">
         <v>1</v>
       </c>
-      <c r="L28" s="224">
+      <c r="L28" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="B29" s="221">
+      <c r="B29" s="100">
         <v>23</v>
       </c>
-      <c r="C29" s="221" t="s">
+      <c r="C29" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="222" t="s">
+      <c r="D29" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="223">
-        <v>0</v>
-      </c>
-      <c r="F29" s="221">
+      <c r="E29" s="102">
+        <v>0</v>
+      </c>
+      <c r="F29" s="100">
         <v>1</v>
       </c>
-      <c r="G29" s="221">
-        <v>0</v>
-      </c>
-      <c r="H29" s="224">
-        <v>0</v>
-      </c>
-      <c r="I29" s="223">
+      <c r="G29" s="100">
+        <v>0</v>
+      </c>
+      <c r="H29" s="103">
+        <v>0</v>
+      </c>
+      <c r="I29" s="102">
         <v>1</v>
       </c>
-      <c r="J29" s="221">
-        <v>0</v>
-      </c>
-      <c r="K29" s="221">
+      <c r="J29" s="100">
+        <v>0</v>
+      </c>
+      <c r="K29" s="100">
         <v>1</v>
       </c>
-      <c r="L29" s="224">
+      <c r="L29" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
-      <c r="B30" s="221">
+      <c r="B30" s="100">
         <v>24</v>
       </c>
-      <c r="C30" s="221" t="s">
+      <c r="C30" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="222" t="s">
+      <c r="D30" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="223">
-        <v>0</v>
-      </c>
-      <c r="F30" s="221">
-        <v>0</v>
-      </c>
-      <c r="G30" s="221">
+      <c r="E30" s="102">
+        <v>0</v>
+      </c>
+      <c r="F30" s="100">
+        <v>0</v>
+      </c>
+      <c r="G30" s="100">
         <v>1</v>
       </c>
-      <c r="H30" s="224">
-        <v>0</v>
-      </c>
-      <c r="I30" s="223">
-        <v>0</v>
-      </c>
-      <c r="J30" s="221">
-        <v>0</v>
-      </c>
-      <c r="K30" s="221">
-        <v>0</v>
-      </c>
-      <c r="L30" s="224">
+      <c r="H30" s="103">
+        <v>0</v>
+      </c>
+      <c r="I30" s="102">
+        <v>0</v>
+      </c>
+      <c r="J30" s="100">
+        <v>0</v>
+      </c>
+      <c r="K30" s="100">
+        <v>0</v>
+      </c>
+      <c r="L30" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
-      <c r="B31" s="221">
+      <c r="B31" s="100">
         <v>25</v>
       </c>
-      <c r="C31" s="221" t="s">
+      <c r="C31" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="222" t="s">
+      <c r="D31" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="225">
-        <v>0</v>
-      </c>
-      <c r="F31" s="226">
-        <v>0</v>
-      </c>
-      <c r="G31" s="226">
-        <v>0</v>
-      </c>
-      <c r="H31" s="227">
+      <c r="E31" s="104">
+        <v>0</v>
+      </c>
+      <c r="F31" s="105">
+        <v>0</v>
+      </c>
+      <c r="G31" s="105">
+        <v>0</v>
+      </c>
+      <c r="H31" s="106">
         <v>1</v>
       </c>
-      <c r="I31" s="225">
+      <c r="I31" s="104">
         <v>1</v>
       </c>
-      <c r="J31" s="226">
-        <v>0</v>
-      </c>
-      <c r="K31" s="226">
+      <c r="J31" s="105">
+        <v>0</v>
+      </c>
+      <c r="K31" s="105">
         <v>1</v>
       </c>
-      <c r="L31" s="227">
+      <c r="L31" s="106">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="E5:H5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="E5:H5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4325,19 +4325,19 @@
       <c r="A1" s="29">
         <v>1.2</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="178" t="s">
+      <c r="D1" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="70" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4355,10 +4355,10 @@
         <v>54</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="179"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="180">
+      <c r="B3" s="126">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -4373,14 +4373,14 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="181"/>
+      <c r="B4" s="127"/>
       <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="182" t="s">
+      <c r="E4" s="72" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -4388,7 +4388,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="181"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="12" t="s">
         <v>4</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="183"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
@@ -4416,7 +4416,7 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="180">
+      <c r="B7" s="126">
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -4431,7 +4431,7 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="181"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="181"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="181"/>
+      <c r="B10" s="127"/>
       <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
@@ -4472,7 +4472,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="181"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="181"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="181"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="12" t="s">
         <v>36</v>
       </c>
@@ -4511,7 +4511,7 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="183"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="12" t="s">
         <v>37</v>
       </c>
@@ -4524,7 +4524,7 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="180">
+      <c r="B15" s="126">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -4541,7 +4541,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="181"/>
+      <c r="B16" s="127"/>
       <c r="C16" s="12" t="s">
         <v>39</v>
       </c>
@@ -4554,7 +4554,7 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="181"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="12" t="s">
         <v>40</v>
       </c>
@@ -4567,7 +4567,7 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="183"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
@@ -4582,7 +4582,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="180">
+      <c r="B19" s="126">
         <v>4</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -4597,7 +4597,7 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="181"/>
+      <c r="B20" s="127"/>
       <c r="C20" s="12" t="s">
         <v>46</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="181"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="181"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="12" t="s">
         <v>48</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="181"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="12" t="s">
         <v>49</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="181"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="12" t="s">
         <v>50</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="181"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="12" t="s">
         <v>51</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="183"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="12" t="s">
         <v>52</v>
       </c>
@@ -4688,11 +4688,11 @@
       <c r="F26" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="184" t="s">
+      <c r="B28" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4712,8 +4712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB46622-7349-4F41-9B03-5CFDFEB480B6}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4722,761 +4722,761 @@
     <col min="3" max="3" width="15.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="165" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="228">
+      <c r="A1" s="107">
         <v>2</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="168" t="s">
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="228"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="169" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="168" t="s">
+      <c r="E2" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="168" t="s">
+      <c r="F2" s="63" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
-      <c r="B3" s="229">
+      <c r="B3" s="108">
         <v>1</v>
       </c>
-      <c r="C3" s="230">
-        <v>0</v>
-      </c>
-      <c r="D3" s="229">
+      <c r="C3" s="109">
+        <v>0</v>
+      </c>
+      <c r="D3" s="108">
         <v>1</v>
       </c>
-      <c r="E3" s="229" t="s">
+      <c r="E3" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="231">
+      <c r="F3" s="110">
         <v>0.24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
-      <c r="B4" s="229">
+      <c r="B4" s="108">
         <v>2</v>
       </c>
-      <c r="C4" s="230">
-        <v>0</v>
-      </c>
-      <c r="D4" s="229">
+      <c r="C4" s="109">
+        <v>0</v>
+      </c>
+      <c r="D4" s="108">
         <v>5</v>
       </c>
-      <c r="E4" s="229" t="s">
+      <c r="E4" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="231">
+      <c r="F4" s="110">
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
-      <c r="B5" s="229">
+      <c r="B5" s="108">
         <v>3</v>
       </c>
-      <c r="C5" s="230">
-        <v>0</v>
-      </c>
-      <c r="D5" s="229">
+      <c r="C5" s="109">
+        <v>0</v>
+      </c>
+      <c r="D5" s="108">
         <v>10</v>
       </c>
-      <c r="E5" s="229" t="s">
+      <c r="E5" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="231">
+      <c r="F5" s="110">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
-      <c r="B6" s="229">
+      <c r="B6" s="108">
         <v>4</v>
       </c>
-      <c r="C6" s="230">
+      <c r="C6" s="109">
         <v>0.33332175925925928</v>
       </c>
-      <c r="D6" s="229">
+      <c r="D6" s="108">
         <v>1</v>
       </c>
-      <c r="E6" s="229" t="s">
+      <c r="E6" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="231">
+      <c r="F6" s="110">
         <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
-      <c r="B7" s="229">
+      <c r="B7" s="108">
         <v>5</v>
       </c>
-      <c r="C7" s="230">
+      <c r="C7" s="109">
         <v>0.33332175925925928</v>
       </c>
-      <c r="D7" s="229">
+      <c r="D7" s="108">
         <v>5</v>
       </c>
-      <c r="E7" s="229" t="s">
+      <c r="E7" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="231">
+      <c r="F7" s="110">
         <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
-      <c r="B8" s="229">
+      <c r="B8" s="108">
         <v>6</v>
       </c>
-      <c r="C8" s="230">
+      <c r="C8" s="109">
         <v>0.33332175925925928</v>
       </c>
-      <c r="D8" s="229">
+      <c r="D8" s="108">
         <v>10</v>
       </c>
-      <c r="E8" s="229" t="s">
+      <c r="E8" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="231">
+      <c r="F8" s="110">
         <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
-      <c r="B9" s="229">
+      <c r="B9" s="108">
         <v>7</v>
       </c>
-      <c r="C9" s="230">
+      <c r="C9" s="109">
         <v>0.33332175925925928</v>
       </c>
-      <c r="D9" s="229">
+      <c r="D9" s="108">
         <v>15</v>
       </c>
-      <c r="E9" s="229" t="s">
+      <c r="E9" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="231">
+      <c r="F9" s="110">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
-      <c r="B10" s="229">
-        <v>8</v>
-      </c>
-      <c r="C10" s="230">
+      <c r="B10" s="108">
+        <v>8</v>
+      </c>
+      <c r="C10" s="109">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D10" s="229">
+      <c r="D10" s="108">
         <v>1</v>
       </c>
-      <c r="E10" s="229" t="s">
+      <c r="E10" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="231">
+      <c r="F10" s="110">
         <v>1.25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26"/>
-      <c r="B11" s="229">
+      <c r="B11" s="108">
         <v>9</v>
       </c>
-      <c r="C11" s="230">
+      <c r="C11" s="109">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D11" s="229">
+      <c r="D11" s="108">
         <v>5</v>
       </c>
-      <c r="E11" s="229" t="s">
+      <c r="E11" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="231">
+      <c r="F11" s="110">
         <v>3.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
-      <c r="B12" s="229">
+      <c r="B12" s="108">
         <v>10</v>
       </c>
-      <c r="C12" s="230">
+      <c r="C12" s="109">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D12" s="229">
+      <c r="D12" s="108">
         <v>10</v>
       </c>
-      <c r="E12" s="229" t="s">
+      <c r="E12" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="231">
+      <c r="F12" s="110">
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="B13" s="229">
+      <c r="B13" s="108">
         <v>11</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="109">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="108">
         <v>5</v>
       </c>
-      <c r="E13" s="229" t="s">
+      <c r="E13" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="231">
+      <c r="F13" s="110">
         <v>6.25</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="229">
+      <c r="B14" s="108">
         <v>12</v>
       </c>
-      <c r="C14" s="230">
+      <c r="C14" s="109">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D14" s="229">
+      <c r="D14" s="108">
         <v>15</v>
       </c>
-      <c r="E14" s="229" t="s">
+      <c r="E14" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="231">
+      <c r="F14" s="110">
         <v>11.25</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
-      <c r="B15" s="229">
+      <c r="B15" s="108">
         <v>13</v>
       </c>
-      <c r="C15" s="230">
+      <c r="C15" s="109">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="108">
         <v>61</v>
       </c>
-      <c r="E15" s="229" t="s">
+      <c r="E15" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="231">
+      <c r="F15" s="110">
         <v>15.25</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
-      <c r="B16" s="229">
+      <c r="B16" s="108">
         <v>14</v>
       </c>
-      <c r="C16" s="230">
+      <c r="C16" s="109">
         <v>0.79167824074074078</v>
       </c>
-      <c r="D16" s="229">
+      <c r="D16" s="108">
         <v>15</v>
       </c>
-      <c r="E16" s="229" t="s">
+      <c r="E16" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="231">
+      <c r="F16" s="110">
         <v>2.25</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
-      <c r="B17" s="229">
+      <c r="B17" s="108">
         <v>15</v>
       </c>
-      <c r="C17" s="230">
+      <c r="C17" s="109">
         <v>0.79167824074074078</v>
       </c>
-      <c r="D17" s="229">
+      <c r="D17" s="108">
         <v>61</v>
       </c>
-      <c r="E17" s="229" t="s">
+      <c r="E17" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="231">
+      <c r="F17" s="110">
         <v>27.45</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
-      <c r="B18" s="229">
+      <c r="B18" s="108">
         <v>16</v>
       </c>
-      <c r="C18" s="230">
+      <c r="C18" s="109">
         <v>0.79167824074074078</v>
       </c>
-      <c r="D18" s="229">
+      <c r="D18" s="108">
         <v>1</v>
       </c>
-      <c r="E18" s="229" t="s">
+      <c r="E18" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="231">
+      <c r="F18" s="110">
         <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
-      <c r="B19" s="229">
+      <c r="B19" s="108">
         <v>17</v>
       </c>
-      <c r="C19" s="230">
+      <c r="C19" s="109">
         <v>0.91665509259259259</v>
       </c>
-      <c r="D19" s="229">
+      <c r="D19" s="108">
         <v>61</v>
       </c>
-      <c r="E19" s="229" t="s">
+      <c r="E19" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="231">
+      <c r="F19" s="110">
         <v>45.75</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
-      <c r="B20" s="229">
+      <c r="B20" s="108">
         <v>18</v>
       </c>
-      <c r="C20" s="230">
+      <c r="C20" s="109">
         <v>0.91665509259259259</v>
       </c>
-      <c r="D20" s="229">
+      <c r="D20" s="108">
         <v>1</v>
       </c>
-      <c r="E20" s="229" t="s">
+      <c r="E20" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="231">
+      <c r="F20" s="110">
         <v>0.45</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
-      <c r="B21" s="229">
+      <c r="B21" s="108">
         <v>19</v>
       </c>
-      <c r="C21" s="230">
+      <c r="C21" s="109">
         <v>0.91665509259259259</v>
       </c>
-      <c r="D21" s="229">
+      <c r="D21" s="108">
         <v>5</v>
       </c>
-      <c r="E21" s="229" t="s">
+      <c r="E21" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="231">
+      <c r="F21" s="110">
         <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
-      <c r="B22" s="229">
+      <c r="B22" s="108">
         <v>20</v>
       </c>
-      <c r="C22" s="230">
+      <c r="C22" s="109">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D22" s="229">
+      <c r="D22" s="108">
         <v>1</v>
       </c>
-      <c r="E22" s="229" t="s">
+      <c r="E22" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="231">
+      <c r="F22" s="110">
         <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
-      <c r="B23" s="229">
+      <c r="B23" s="108">
         <v>21</v>
       </c>
-      <c r="C23" s="230">
+      <c r="C23" s="109">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D23" s="229">
+      <c r="D23" s="108">
         <v>5</v>
       </c>
-      <c r="E23" s="229" t="s">
+      <c r="E23" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="231">
+      <c r="F23" s="110">
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
-      <c r="B24" s="229">
+      <c r="B24" s="108">
         <v>22</v>
       </c>
-      <c r="C24" s="230">
+      <c r="C24" s="109">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D24" s="229">
+      <c r="D24" s="108">
         <v>10</v>
       </c>
-      <c r="E24" s="229" t="s">
+      <c r="E24" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="231">
+      <c r="F24" s="110">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
-      <c r="B25" s="229">
+      <c r="B25" s="108">
         <v>23</v>
       </c>
-      <c r="C25" s="230">
+      <c r="C25" s="109">
         <v>0.99998842592592585</v>
       </c>
-      <c r="D25" s="229">
+      <c r="D25" s="108">
         <v>10</v>
       </c>
-      <c r="E25" s="229" t="s">
+      <c r="E25" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="231">
+      <c r="F25" s="110">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
-      <c r="B26" s="229">
+      <c r="B26" s="108">
         <v>24</v>
       </c>
-      <c r="C26" s="230">
+      <c r="C26" s="109">
         <v>0.99998842592592585</v>
       </c>
-      <c r="D26" s="229">
+      <c r="D26" s="108">
         <v>15</v>
       </c>
-      <c r="E26" s="229" t="s">
+      <c r="E26" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="231">
+      <c r="F26" s="110">
         <v>4.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
-      <c r="B27" s="229">
+      <c r="B27" s="108">
         <v>25</v>
       </c>
-      <c r="C27" s="230">
+      <c r="C27" s="109">
         <v>0.99998842592592585</v>
       </c>
-      <c r="D27" s="229">
+      <c r="D27" s="108">
         <v>61</v>
       </c>
-      <c r="E27" s="229" t="s">
+      <c r="E27" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="231">
+      <c r="F27" s="110">
         <v>30.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
-      <c r="B28" s="229">
+      <c r="B28" s="108">
         <v>26</v>
       </c>
-      <c r="C28" s="230">
-        <v>0</v>
-      </c>
-      <c r="D28" s="229">
+      <c r="C28" s="109">
+        <v>0</v>
+      </c>
+      <c r="D28" s="108">
         <v>15</v>
       </c>
-      <c r="E28" s="229" t="s">
+      <c r="E28" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="231">
+      <c r="F28" s="110">
         <v>1.2</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
-      <c r="B29" s="229">
+      <c r="B29" s="108">
         <v>27</v>
       </c>
-      <c r="C29" s="230">
-        <v>0</v>
-      </c>
-      <c r="D29" s="229">
+      <c r="C29" s="109">
+        <v>0</v>
+      </c>
+      <c r="D29" s="108">
         <v>61</v>
       </c>
-      <c r="E29" s="229" t="s">
+      <c r="E29" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="231">
+      <c r="F29" s="110">
         <v>14.64</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
-      <c r="B30" s="229">
+      <c r="B30" s="108">
         <v>28</v>
       </c>
-      <c r="C30" s="230">
+      <c r="C30" s="109">
         <v>0.33332175925925928</v>
       </c>
-      <c r="D30" s="229">
+      <c r="D30" s="108">
         <v>61</v>
       </c>
-      <c r="E30" s="229" t="s">
+      <c r="E30" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="231">
+      <c r="F30" s="110">
         <v>4.88</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
-      <c r="B31" s="229">
+      <c r="B31" s="108">
         <v>29</v>
       </c>
-      <c r="C31" s="230">
+      <c r="C31" s="109">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D31" s="229">
+      <c r="D31" s="108">
         <v>15</v>
       </c>
-      <c r="E31" s="229" t="s">
+      <c r="E31" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="231">
+      <c r="F31" s="110">
         <v>18.75</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
-      <c r="B32" s="229">
+      <c r="B32" s="108">
         <v>30</v>
       </c>
-      <c r="C32" s="230">
+      <c r="C32" s="109">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D32" s="229">
+      <c r="D32" s="108">
         <v>61</v>
       </c>
-      <c r="E32" s="229" t="s">
+      <c r="E32" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="231">
+      <c r="F32" s="110">
         <v>45.75</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
-      <c r="B33" s="229">
+      <c r="B33" s="108">
         <v>31</v>
       </c>
-      <c r="C33" s="230">
+      <c r="C33" s="109">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D33" s="229">
+      <c r="D33" s="108">
         <v>10</v>
       </c>
-      <c r="E33" s="229" t="s">
+      <c r="E33" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="231">
-        <v>7.5</v>
-      </c>
-      <c r="G33" s="232"/>
+      <c r="F33" s="110">
+        <v>12.5</v>
+      </c>
+      <c r="G33" s="111"/>
     </row>
     <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
-      <c r="B34" s="229">
+      <c r="B34" s="108">
         <v>32</v>
       </c>
-      <c r="C34" s="230">
+      <c r="C34" s="109">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D34" s="229">
+      <c r="D34" s="108">
         <v>1</v>
       </c>
-      <c r="E34" s="229" t="s">
+      <c r="E34" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="231">
-        <v>0.45</v>
-      </c>
-      <c r="G34" s="232"/>
+      <c r="F34" s="110">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="111"/>
     </row>
     <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
-      <c r="B35" s="229">
+      <c r="B35" s="108">
         <v>33</v>
       </c>
-      <c r="C35" s="230">
+      <c r="C35" s="109">
         <v>0.79167824074074078</v>
       </c>
-      <c r="D35" s="229">
+      <c r="D35" s="108">
         <v>5</v>
       </c>
-      <c r="E35" s="229" t="s">
+      <c r="E35" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="231">
-        <v>3.75</v>
-      </c>
-      <c r="G35" s="232"/>
+      <c r="F35" s="110">
+        <v>2.25</v>
+      </c>
+      <c r="G35" s="111"/>
     </row>
     <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
-      <c r="B36" s="229">
+      <c r="B36" s="108">
         <v>34</v>
       </c>
-      <c r="C36" s="230">
+      <c r="C36" s="109">
         <v>0.79167824074074078</v>
       </c>
-      <c r="D36" s="229">
+      <c r="D36" s="108">
         <v>10</v>
       </c>
-      <c r="E36" s="229" t="s">
+      <c r="E36" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="231">
+      <c r="F36" s="110">
         <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
-      <c r="B37" s="229">
+      <c r="B37" s="108">
         <v>35</v>
       </c>
-      <c r="C37" s="230">
+      <c r="C37" s="109">
         <v>0.91665509259259259</v>
       </c>
-      <c r="D37" s="229">
+      <c r="D37" s="108">
         <v>10</v>
       </c>
-      <c r="E37" s="229" t="s">
+      <c r="E37" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="231">
+      <c r="F37" s="110">
         <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
-      <c r="B38" s="229">
+      <c r="B38" s="108">
         <v>36</v>
       </c>
-      <c r="C38" s="230">
+      <c r="C38" s="109">
         <v>0.91665509259259259</v>
       </c>
-      <c r="D38" s="229">
+      <c r="D38" s="108">
         <v>15</v>
       </c>
-      <c r="E38" s="229" t="s">
+      <c r="E38" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="231">
+      <c r="F38" s="110">
         <v>2.25</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
-      <c r="B39" s="229">
+      <c r="B39" s="108">
         <v>37</v>
       </c>
-      <c r="C39" s="230">
+      <c r="C39" s="109">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D39" s="229">
+      <c r="D39" s="108">
         <v>15</v>
       </c>
-      <c r="E39" s="229" t="s">
+      <c r="E39" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="231">
+      <c r="F39" s="110">
         <v>4.5</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
-      <c r="B40" s="229">
+      <c r="B40" s="108">
         <v>38</v>
       </c>
-      <c r="C40" s="230">
+      <c r="C40" s="109">
         <v>0.91666666666666663</v>
       </c>
-      <c r="D40" s="229">
+      <c r="D40" s="108">
         <v>61</v>
       </c>
-      <c r="E40" s="229" t="s">
+      <c r="E40" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="231">
+      <c r="F40" s="110">
         <v>6.1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
-      <c r="B41" s="229">
+      <c r="B41" s="108">
         <v>39</v>
       </c>
-      <c r="C41" s="230">
+      <c r="C41" s="109">
         <v>0.99998842592592585</v>
       </c>
-      <c r="D41" s="229">
+      <c r="D41" s="108">
         <v>1</v>
       </c>
-      <c r="E41" s="229" t="s">
+      <c r="E41" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="231">
+      <c r="F41" s="110">
         <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
-      <c r="B42" s="229">
+      <c r="B42" s="108">
         <v>40</v>
       </c>
-      <c r="C42" s="230">
+      <c r="C42" s="109">
         <v>0.99998842592592585</v>
       </c>
-      <c r="D42" s="229">
+      <c r="D42" s="108">
         <v>5</v>
       </c>
-      <c r="E42" s="229" t="s">
+      <c r="E42" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="231">
+      <c r="F42" s="110">
         <v>2.5</v>
       </c>
     </row>
@@ -5505,361 +5505,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="27" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="134"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="134"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="134"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="134"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="50"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="134"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="126"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="134"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="134"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="126"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="134"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="134"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="134"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="126"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="134"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="50"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="126"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="134"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="134"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="126"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="134"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="50"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="134"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="134"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="170"/>
-      <c r="B18" s="47" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
     </row>
     <row r="20" spans="1:8" s="27" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="164" t="s">
+      <c r="B20" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="142"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="136"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="134"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="134"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="126"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="134"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="126"/>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="134"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="126"/>
-      <c r="B25" s="151"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="134"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="126"/>
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="134"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="126"/>
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="134"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="126"/>
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="134"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="126"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="134"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="126"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="134"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="126"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="134"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="126"/>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="134"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="126"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="134"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="126"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="134"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="126"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="134"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="126"/>
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="134"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="50"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="170"/>
-      <c r="B37" s="47" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="133"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="174"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -5884,405 +5884,405 @@
       <c r="B43" s="28"/>
     </row>
     <row r="44" spans="1:9" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="125" t="s">
+      <c r="A44" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="171" t="s">
+      <c r="B44" s="138" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="173"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="140"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="126"/>
-      <c r="B45" s="151"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="134"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="126"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="151"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="134"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="126"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="134"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="50"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="126"/>
-      <c r="B48" s="151"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="134"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="50"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="151"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="134"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="50"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="126"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="134"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="50"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="126"/>
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="134"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="50"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="126"/>
-      <c r="B52" s="151"/>
-      <c r="C52" s="151"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="134"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="50"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="126"/>
-      <c r="B53" s="151"/>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="151"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="134"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="50"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="126"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="151"/>
-      <c r="F54" s="151"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="134"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="50"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="126"/>
-      <c r="B55" s="151"/>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="151"/>
-      <c r="F55" s="151"/>
-      <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="134"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="50"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="126"/>
-      <c r="B56" s="151"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="134"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="50"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="126"/>
-      <c r="B57" s="151"/>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="134"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="50"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="126"/>
-      <c r="B58" s="151"/>
-      <c r="C58" s="151"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="134"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="50"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="126"/>
-      <c r="B59" s="151"/>
-      <c r="C59" s="151"/>
-      <c r="D59" s="151"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="151"/>
-      <c r="G59" s="151"/>
-      <c r="H59" s="151"/>
-      <c r="I59" s="134"/>
+      <c r="A59" s="45"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="50"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="126"/>
-      <c r="B60" s="151"/>
-      <c r="C60" s="151"/>
-      <c r="D60" s="151"/>
-      <c r="E60" s="151"/>
-      <c r="F60" s="151"/>
-      <c r="G60" s="151"/>
-      <c r="H60" s="151"/>
-      <c r="I60" s="134"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="50"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="170"/>
-      <c r="B61" s="47" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="131" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
-    </row>
-    <row r="63" spans="1:9" s="163" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="125" t="s">
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="132"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="133"/>
+    </row>
+    <row r="63" spans="1:9" s="61" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="B63" s="164" t="s">
+      <c r="B63" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="142"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="136"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="126"/>
-      <c r="B64" s="151"/>
-      <c r="C64" s="151"/>
-      <c r="D64" s="151"/>
-      <c r="E64" s="151"/>
-      <c r="F64" s="151"/>
-      <c r="G64" s="151"/>
-      <c r="H64" s="134"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="126"/>
-      <c r="B65" s="151"/>
-      <c r="C65" s="151"/>
-      <c r="D65" s="151"/>
-      <c r="E65" s="151"/>
-      <c r="F65" s="151"/>
-      <c r="G65" s="151"/>
-      <c r="H65" s="134"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="126"/>
-      <c r="B66" s="151"/>
-      <c r="C66" s="151"/>
-      <c r="D66" s="151"/>
-      <c r="E66" s="151"/>
-      <c r="F66" s="151"/>
-      <c r="G66" s="151"/>
-      <c r="H66" s="134"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="126"/>
-      <c r="B67" s="151"/>
-      <c r="C67" s="151"/>
-      <c r="D67" s="151"/>
-      <c r="E67" s="151"/>
-      <c r="F67" s="151"/>
-      <c r="G67" s="151"/>
-      <c r="H67" s="134"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="126"/>
-      <c r="B68" s="151"/>
-      <c r="C68" s="151"/>
-      <c r="D68" s="151"/>
-      <c r="E68" s="151"/>
-      <c r="F68" s="151"/>
-      <c r="G68" s="151"/>
-      <c r="H68" s="134"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="126"/>
-      <c r="B69" s="151"/>
-      <c r="C69" s="151"/>
-      <c r="D69" s="151"/>
-      <c r="E69" s="151"/>
-      <c r="F69" s="151"/>
-      <c r="G69" s="151"/>
-      <c r="H69" s="134"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="126"/>
-      <c r="B70" s="151"/>
-      <c r="C70" s="151"/>
-      <c r="D70" s="151"/>
-      <c r="E70" s="151"/>
-      <c r="F70" s="151"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="134"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="55"/>
+      <c r="H70" s="50"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="126"/>
-      <c r="B71" s="151"/>
-      <c r="C71" s="151"/>
-      <c r="D71" s="151"/>
-      <c r="E71" s="151"/>
-      <c r="F71" s="151"/>
-      <c r="G71" s="151"/>
-      <c r="H71" s="134"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="55"/>
+      <c r="H71" s="50"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="126"/>
-      <c r="B72" s="151"/>
-      <c r="C72" s="151"/>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="151"/>
-      <c r="H72" s="134"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="50"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="126"/>
-      <c r="B73" s="151"/>
-      <c r="C73" s="151"/>
-      <c r="D73" s="151"/>
-      <c r="E73" s="151"/>
-      <c r="F73" s="151"/>
-      <c r="G73" s="151"/>
-      <c r="H73" s="134"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="55"/>
+      <c r="H73" s="50"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="126"/>
-      <c r="B74" s="151"/>
-      <c r="C74" s="151"/>
-      <c r="D74" s="151"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="151"/>
-      <c r="G74" s="151"/>
-      <c r="H74" s="134"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="50"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="126"/>
-      <c r="B75" s="151"/>
-      <c r="C75" s="151"/>
-      <c r="D75" s="151"/>
-      <c r="E75" s="151"/>
-      <c r="F75" s="151"/>
-      <c r="G75" s="151"/>
-      <c r="H75" s="134"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="126"/>
-      <c r="B76" s="151"/>
-      <c r="C76" s="151"/>
-      <c r="D76" s="151"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="151"/>
-      <c r="G76" s="151"/>
-      <c r="H76" s="134"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="126"/>
-      <c r="B77" s="151"/>
-      <c r="C77" s="151"/>
-      <c r="D77" s="151"/>
-      <c r="E77" s="151"/>
-      <c r="F77" s="151"/>
-      <c r="G77" s="151"/>
-      <c r="H77" s="134"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="126"/>
-      <c r="B78" s="151"/>
-      <c r="C78" s="151"/>
-      <c r="D78" s="151"/>
-      <c r="E78" s="151"/>
-      <c r="F78" s="151"/>
-      <c r="G78" s="151"/>
-      <c r="H78" s="134"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+      <c r="H78" s="50"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="126"/>
-      <c r="B79" s="151"/>
-      <c r="C79" s="151"/>
-      <c r="D79" s="151"/>
-      <c r="E79" s="151"/>
-      <c r="F79" s="151"/>
-      <c r="G79" s="151"/>
-      <c r="H79" s="134"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="55"/>
+      <c r="H79" s="50"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="170"/>
-      <c r="B80" s="47" t="s">
+      <c r="A80" s="65"/>
+      <c r="B80" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="49"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="132"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="132"/>
+      <c r="G80" s="132"/>
+      <c r="H80" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B44:I44"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="B80:H80"/>
     <mergeCell ref="B63:H63"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B44:I44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6318,20 +6318,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143"/>
       <c r="E1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
+      <c r="A2" s="38"/>
       <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
@@ -6346,7 +6346,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="112"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="12" t="s">
         <v>69</v>
       </c>
@@ -6361,7 +6361,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="112"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="12" t="s">
         <v>69</v>
       </c>
@@ -6376,7 +6376,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="112"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="12" t="s">
         <v>69</v>
       </c>
@@ -6391,7 +6391,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="112"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="12" t="s">
         <v>69</v>
       </c>
@@ -6406,7 +6406,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
@@ -6421,7 +6421,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="112"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -6436,7 +6436,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="112"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
@@ -6451,7 +6451,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="112"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
@@ -6466,91 +6466,91 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="112"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="112"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="158" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="112"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="165" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="167"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="112"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="148"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="112"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="181" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="61"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="183"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="113"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="170"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="143"/>
       <c r="E18" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
-      <c r="B19" s="77" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="152" t="s">
         <v>67</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -6558,16 +6558,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="112"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
       <c r="E20" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="112"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="12" t="s">
         <v>69</v>
       </c>
@@ -6582,7 +6582,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="112"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -6597,7 +6597,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="112"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="12" t="s">
         <v>69</v>
       </c>
@@ -6612,7 +6612,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="112"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="12" t="s">
         <v>69</v>
       </c>
@@ -6627,7 +6627,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="112"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="12" t="s">
         <v>8</v>
       </c>
@@ -6642,7 +6642,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="112"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="12" t="s">
         <v>8</v>
       </c>
@@ -6657,7 +6657,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="112"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="12" t="s">
         <v>8</v>
       </c>
@@ -6672,7 +6672,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="112"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="12" t="s">
         <v>8</v>
       </c>
@@ -6687,148 +6687,148 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="112"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="148"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="112"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="112"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="186"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="112"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="146" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="113"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="189" t="s">
         <v>114</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="69"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="191"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="175"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="235"/>
-      <c r="D35" s="235"/>
-      <c r="E35" s="235"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="175"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="235"/>
-      <c r="D36" s="235"/>
-      <c r="E36" s="235"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="175"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="235"/>
-      <c r="D37" s="235"/>
-      <c r="E37" s="235"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="175"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="235"/>
-      <c r="D38" s="235"/>
-      <c r="E38" s="235"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="175"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="235"/>
-      <c r="D39" s="235"/>
-      <c r="E39" s="235"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="175"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="235"/>
-      <c r="D40" s="235"/>
-      <c r="E40" s="235"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="175"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="235"/>
-      <c r="D41" s="235"/>
-      <c r="E41" s="235"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="175"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="235"/>
-      <c r="E42" s="235"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="175"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="235"/>
-      <c r="D43" s="235"/>
-      <c r="E43" s="235"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="111" t="s">
+      <c r="A45" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="88"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="157"/>
       <c r="F45" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="112"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="15" t="s">
         <v>64</v>
       </c>
@@ -6846,413 +6846,413 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="112"/>
-      <c r="B47" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="234" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="112"/>
-      <c r="B48" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="234" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="112"/>
-      <c r="B49" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="234" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="112"/>
-      <c r="B50" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="234" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="112"/>
-      <c r="B51" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F51" s="234" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="112"/>
-      <c r="B52" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="234" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="112"/>
-      <c r="B53" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="234" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="112"/>
-      <c r="B54" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="234" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="112"/>
-      <c r="B55" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="234" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="112"/>
-      <c r="B56" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="234" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="112"/>
-      <c r="B57" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="234" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="112"/>
-      <c r="B58" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="234" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="112"/>
-      <c r="B59" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="234" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="112"/>
-      <c r="B60" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="234" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="112"/>
-      <c r="B61" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" s="234" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="112"/>
-      <c r="B62" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="234" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="112"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="193" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="82"/>
+      <c r="D63" s="194"/>
+      <c r="E63" s="194"/>
+      <c r="F63" s="195"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="112"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="196" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="85"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="198"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="112"/>
+      <c r="A65" s="38"/>
       <c r="B65" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
+      <c r="D65" s="192"/>
+      <c r="E65" s="192"/>
+      <c r="F65" s="192"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="112"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
+      <c r="D66" s="177"/>
+      <c r="E66" s="177"/>
+      <c r="F66" s="177"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="112"/>
-      <c r="B67" s="41" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="53"/>
+      <c r="D67" s="179"/>
+      <c r="E67" s="179"/>
+      <c r="F67" s="180"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="44" t="s">
+      <c r="A68" s="38"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="46"/>
+      <c r="D68" s="175"/>
+      <c r="E68" s="175"/>
+      <c r="F68" s="176"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="47" t="s">
+      <c r="A69" s="39"/>
+      <c r="B69" s="173"/>
+      <c r="C69" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="49"/>
+      <c r="D69" s="132"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="133"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="72"/>
+      <c r="C71" s="143"/>
       <c r="D71" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="112"/>
-      <c r="B72" s="77" t="s">
+      <c r="A72" s="38"/>
+      <c r="B72" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="75" t="s">
+      <c r="C72" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D72" s="107" t="s">
+      <c r="D72" s="159" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="112"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="108"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="153"/>
+      <c r="C73" s="150"/>
+      <c r="D73" s="160"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="76"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="151"/>
       <c r="D74" s="5" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="112"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="12" t="s">
         <v>69</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="112"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="12" t="s">
         <v>69</v>
       </c>
@@ -7276,7 +7276,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="112"/>
+      <c r="A77" s="38"/>
       <c r="B77" s="12" t="s">
         <v>8</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="112"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="12" t="s">
         <v>8</v>
       </c>
@@ -7300,65 +7300,91 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="112"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C79" s="73" t="s">
+      <c r="C79" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="74"/>
+      <c r="D79" s="145"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="112"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C80" s="89" t="s">
+      <c r="C80" s="158" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="89"/>
+      <c r="D80" s="158"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="112"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="74"/>
+      <c r="D81" s="145"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="112"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="54" t="s">
+      <c r="C82" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="55"/>
+      <c r="D82" s="162"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="112"/>
-      <c r="B83" s="36" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="55"/>
+      <c r="D83" s="162"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="113"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="47" t="s">
+      <c r="A84" s="39"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="D84" s="49"/>
+      <c r="D84" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C64:F64"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C79:D79"/>
@@ -7371,33 +7397,7 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B45:E45"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C64:F64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7423,253 +7423,253 @@
     <col min="7" max="16384" width="9.109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="104" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+    <row r="1" spans="1:4" s="36" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="126"/>
-      <c r="B2" s="116" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="118"/>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="118"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="201" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="120"/>
+      <c r="D4" s="200"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="120"/>
+      <c r="D6" s="200"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="122" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="213" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="124"/>
-    </row>
-    <row r="9" spans="1:4" s="104" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="D7" s="214"/>
+    </row>
+    <row r="9" spans="1:4" s="36" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="116" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="129"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="129"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="126"/>
-      <c r="B12" s="116" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="129"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="126"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="129"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
-      <c r="B14" s="116" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="130" t="s">
+      <c r="C14" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="118"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
-      <c r="B15" s="122" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="206" t="s">
         <v>163</v>
       </c>
-      <c r="D15" s="132"/>
-    </row>
-    <row r="17" spans="1:5" s="104" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="125" t="s">
+      <c r="D15" s="207"/>
+    </row>
+    <row r="17" spans="1:5" s="36" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="209" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="126"/>
-      <c r="B19" s="116" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="134"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="126"/>
-      <c r="B20" s="116" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="134"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="116" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="134"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="126"/>
-      <c r="B23" s="116" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="208" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
-      <c r="B24" s="122" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="131" t="s">
+      <c r="C24" s="206" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-    </row>
-    <row r="26" spans="1:5" s="104" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="140" t="s">
+      <c r="D24" s="206"/>
+      <c r="E24" s="207"/>
+    </row>
+    <row r="26" spans="1:5" s="36" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="146"/>
-      <c r="B27" s="136" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="139" t="s">
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="126"/>
-      <c r="B28" s="77" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="152" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -7677,16 +7677,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="126"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
       <c r="E29" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="126"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="12" t="s">
         <v>69</v>
       </c>
@@ -7701,7 +7701,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="126"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="12" t="s">
         <v>69</v>
       </c>
@@ -7716,7 +7716,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="126"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="12" t="s">
         <v>69</v>
       </c>
@@ -7731,7 +7731,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="126"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="12" t="s">
         <v>69</v>
       </c>
@@ -7746,7 +7746,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="126"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="12" t="s">
         <v>8</v>
       </c>
@@ -7761,7 +7761,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="126"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="12" t="s">
         <v>8</v>
       </c>
@@ -7776,7 +7776,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="126"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="12" t="s">
         <v>8</v>
       </c>
@@ -7791,7 +7791,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="126"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="12" t="s">
         <v>8</v>
       </c>
@@ -7806,109 +7806,109 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="126"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="98"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="205"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="126"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="126"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="167"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="126"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="146" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="126"/>
-      <c r="B42" s="36" t="s">
+      <c r="A42" s="45"/>
+      <c r="B42" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="181" t="s">
         <v>131</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="61"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="183"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="126"/>
-      <c r="B43" s="99"/>
-      <c r="C43" s="100" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="210" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
+      <c r="D43" s="211"/>
+      <c r="E43" s="212"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="127"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="168" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="1:5" s="104" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="145" t="s">
+      <c r="D44" s="169"/>
+      <c r="E44" s="170"/>
+    </row>
+    <row r="45" spans="1:5" s="36" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="137" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="146"/>
-      <c r="B46" s="136" t="s">
+      <c r="A46" s="54"/>
+      <c r="B46" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="138"/>
-      <c r="E46" s="139" t="s">
+      <c r="C46" s="203"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="126"/>
-      <c r="B47" s="77" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="77" t="s">
+      <c r="D47" s="152" t="s">
         <v>66</v>
       </c>
       <c r="E47" s="9" t="s">
@@ -7916,16 +7916,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="126"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
       <c r="E48" s="24" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="12" t="s">
         <v>69</v>
       </c>
@@ -7940,7 +7940,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="126"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="12" t="s">
         <v>69</v>
       </c>
@@ -7955,7 +7955,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="126"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="12" t="s">
         <v>69</v>
       </c>
@@ -7970,7 +7970,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="126"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="12" t="s">
         <v>69</v>
       </c>
@@ -7985,7 +7985,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="126"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="12" t="s">
         <v>8</v>
       </c>
@@ -8000,7 +8000,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="126"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="12" t="s">
         <v>8</v>
       </c>
@@ -8015,7 +8015,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="126"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="12" t="s">
         <v>8</v>
       </c>
@@ -8030,7 +8030,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="126"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="12" t="s">
         <v>8</v>
       </c>
@@ -8045,105 +8045,105 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="126"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="98"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="205"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="126"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="126"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="90" t="s">
+      <c r="C59" s="165" t="s">
         <v>139</v>
       </c>
-      <c r="D59" s="91"/>
-      <c r="E59" s="92"/>
+      <c r="D59" s="166"/>
+      <c r="E59" s="167"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="126"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="56" t="s">
+      <c r="C60" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="148"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="126"/>
-      <c r="B61" s="65" t="s">
+      <c r="A61" s="45"/>
+      <c r="B61" s="187" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="183"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="127"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="95" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="188"/>
+      <c r="C62" s="219" t="s">
         <v>148</v>
       </c>
-      <c r="D62" s="96"/>
-      <c r="E62" s="97"/>
+      <c r="D62" s="220"/>
+      <c r="E62" s="221"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="145" t="s">
+      <c r="A64" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="B64" s="156" t="s">
+      <c r="B64" s="222" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="143"/>
-      <c r="D64" s="143"/>
-      <c r="E64" s="143"/>
-      <c r="F64" s="144"/>
+      <c r="C64" s="223"/>
+      <c r="D64" s="223"/>
+      <c r="E64" s="223"/>
+      <c r="F64" s="224"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="146"/>
-      <c r="B65" s="147" t="s">
+      <c r="A65" s="54"/>
+      <c r="B65" s="216" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="149"/>
+      <c r="C65" s="217"/>
+      <c r="D65" s="217"/>
+      <c r="E65" s="218"/>
       <c r="F65" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="126"/>
-      <c r="B66" s="93" t="s">
+      <c r="A66" s="45"/>
+      <c r="B66" s="225" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="93" t="s">
+      <c r="C66" s="225" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="93" t="s">
+      <c r="E66" s="225" t="s">
         <v>67</v>
       </c>
       <c r="F66" s="23" t="s">
@@ -8151,735 +8151,791 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="126"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="226"/>
+      <c r="C67" s="226"/>
+      <c r="D67" s="226"/>
+      <c r="E67" s="226"/>
       <c r="F67" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="126"/>
-      <c r="B68" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D68" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E68" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F68" s="234" t="s">
+      <c r="A68" s="45"/>
+      <c r="B68" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F68" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="126"/>
-      <c r="B69" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="234" t="s">
+      <c r="A69" s="45"/>
+      <c r="B69" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D69" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="126"/>
-      <c r="B70" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D70" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F70" s="234" t="s">
+      <c r="A70" s="45"/>
+      <c r="B70" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="126"/>
-      <c r="B71" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="234" t="s">
+      <c r="A71" s="45"/>
+      <c r="B71" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="126"/>
-      <c r="B72" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F72" s="234" t="s">
+      <c r="A72" s="45"/>
+      <c r="B72" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="126"/>
-      <c r="B73" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="234" t="s">
+      <c r="A73" s="45"/>
+      <c r="B73" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="126"/>
-      <c r="B74" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F74" s="234" t="s">
+      <c r="A74" s="45"/>
+      <c r="B74" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="126"/>
-      <c r="B75" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="234" t="s">
+      <c r="A75" s="45"/>
+      <c r="B75" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="126"/>
-      <c r="B76" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F76" s="234" t="s">
+      <c r="A76" s="45"/>
+      <c r="B76" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="126"/>
-      <c r="B77" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="234" t="s">
+      <c r="A77" s="45"/>
+      <c r="B77" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="126"/>
-      <c r="B78" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="234" t="s">
+      <c r="A78" s="45"/>
+      <c r="B78" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="126"/>
-      <c r="B79" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="234" t="s">
+      <c r="A79" s="45"/>
+      <c r="B79" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="126"/>
-      <c r="B80" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F80" s="234" t="s">
+      <c r="A80" s="45"/>
+      <c r="B80" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="113" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="126"/>
-      <c r="B81" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="234" t="s">
+      <c r="A81" s="45"/>
+      <c r="B81" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="126"/>
-      <c r="B82" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="233" t="s">
-        <v>69</v>
-      </c>
-      <c r="F82" s="234" t="s">
+      <c r="A82" s="45"/>
+      <c r="B82" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="126"/>
-      <c r="B83" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="233" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="234" t="s">
+      <c r="A83" s="45"/>
+      <c r="B83" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="113" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="126"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="80" t="s">
+      <c r="C84" s="193" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="81"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="82"/>
+      <c r="D84" s="194"/>
+      <c r="E84" s="194"/>
+      <c r="F84" s="195"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="126"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="83" t="s">
+      <c r="C85" s="196" t="s">
         <v>142</v>
       </c>
-      <c r="D85" s="84"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="85"/>
+      <c r="D85" s="197"/>
+      <c r="E85" s="197"/>
+      <c r="F85" s="198"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="126"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="79"/>
+      <c r="D86" s="192"/>
+      <c r="E86" s="192"/>
+      <c r="F86" s="192"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="126"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="177" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
+      <c r="D87" s="177"/>
+      <c r="E87" s="177"/>
+      <c r="F87" s="177"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="126"/>
-      <c r="B88" s="41" t="s">
+      <c r="A88" s="45"/>
+      <c r="B88" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="178" t="s">
         <v>207</v>
       </c>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="53"/>
+      <c r="D88" s="179"/>
+      <c r="E88" s="179"/>
+      <c r="F88" s="180"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="126"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="44" t="s">
+      <c r="A89" s="45"/>
+      <c r="B89" s="172"/>
+      <c r="C89" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="46"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
+      <c r="F89" s="176"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="127"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="47" t="s">
+      <c r="A90" s="46"/>
+      <c r="B90" s="173"/>
+      <c r="C90" s="131" t="s">
         <v>209</v>
       </c>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="49"/>
-    </row>
-    <row r="92" spans="1:6" s="104" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="145" t="s">
+      <c r="D90" s="132"/>
+      <c r="E90" s="132"/>
+      <c r="F90" s="133"/>
+    </row>
+    <row r="92" spans="1:6" s="36" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="B92" s="110" t="s">
+      <c r="B92" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="C92" s="110"/>
-      <c r="D92" s="110"/>
-      <c r="E92" s="110"/>
+      <c r="C92" s="137"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="137"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="126"/>
-      <c r="B93" s="116" t="s">
+      <c r="A93" s="45"/>
+      <c r="B93" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="133" t="s">
+      <c r="C93" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="D93" s="133"/>
-      <c r="E93" s="134"/>
+      <c r="D93" s="209"/>
+      <c r="E93" s="50"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="126"/>
-      <c r="B94" s="116" t="s">
+      <c r="A94" s="45"/>
+      <c r="B94" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C94" s="133" t="s">
+      <c r="C94" s="209" t="s">
         <v>153</v>
       </c>
-      <c r="D94" s="133"/>
-      <c r="E94" s="134"/>
+      <c r="D94" s="209"/>
+      <c r="E94" s="50"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="126"/>
-      <c r="B95" s="116" t="s">
+      <c r="A95" s="45"/>
+      <c r="B95" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C95" s="116" t="s">
+      <c r="C95" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D95" s="116"/>
-      <c r="E95" s="134"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="50"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="126"/>
-      <c r="B96" s="116" t="s">
+      <c r="A96" s="45"/>
+      <c r="B96" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="116" t="s">
+      <c r="C96" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D96" s="116"/>
-      <c r="E96" s="134"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="50"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="126"/>
-      <c r="B97" s="116"/>
-      <c r="C97" s="116"/>
-      <c r="D97" s="116"/>
-      <c r="E97" s="134"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="50"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="126"/>
-      <c r="B98" s="116" t="s">
+      <c r="A98" s="45"/>
+      <c r="B98" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="135" t="s">
+      <c r="C98" s="208" t="s">
         <v>156</v>
       </c>
-      <c r="D98" s="135"/>
-      <c r="E98" s="134"/>
+      <c r="D98" s="208"/>
+      <c r="E98" s="50"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="126"/>
-      <c r="B99" s="116" t="s">
+      <c r="A99" s="45"/>
+      <c r="B99" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="133" t="s">
+      <c r="C99" s="209" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="133"/>
-      <c r="E99" s="150"/>
+      <c r="D99" s="209"/>
+      <c r="E99" s="228"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="126"/>
-      <c r="B100" s="116" t="s">
+      <c r="A100" s="45"/>
+      <c r="B100" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C100" s="133" t="s">
+      <c r="C100" s="209" t="s">
         <v>162</v>
       </c>
-      <c r="D100" s="133"/>
-      <c r="E100" s="150"/>
+      <c r="D100" s="209"/>
+      <c r="E100" s="228"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="126"/>
-      <c r="B101" s="116" t="s">
+      <c r="A101" s="45"/>
+      <c r="B101" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C101" s="133" t="s">
+      <c r="C101" s="209" t="s">
         <v>185</v>
       </c>
-      <c r="D101" s="133"/>
-      <c r="E101" s="150"/>
+      <c r="D101" s="209"/>
+      <c r="E101" s="228"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="127"/>
-      <c r="B102" s="122" t="s">
+      <c r="A102" s="46"/>
+      <c r="B102" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C102" s="131" t="s">
+      <c r="C102" s="206" t="s">
         <v>184</v>
       </c>
-      <c r="D102" s="131"/>
-      <c r="E102" s="132"/>
-    </row>
-    <row r="104" spans="1:6" s="104" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="145" t="s">
+      <c r="D102" s="206"/>
+      <c r="E102" s="207"/>
+    </row>
+    <row r="104" spans="1:6" s="36" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="B104" s="110" t="s">
+      <c r="B104" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="110"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="110"/>
-      <c r="F104" s="110"/>
+      <c r="C104" s="137"/>
+      <c r="D104" s="137"/>
+      <c r="E104" s="137"/>
+      <c r="F104" s="137"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="126"/>
-      <c r="B105" s="116" t="s">
+      <c r="A105" s="45"/>
+      <c r="B105" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C105" s="133" t="s">
+      <c r="C105" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="D105" s="133"/>
-      <c r="E105" s="133"/>
-      <c r="F105" s="150"/>
+      <c r="D105" s="209"/>
+      <c r="E105" s="209"/>
+      <c r="F105" s="228"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="126"/>
-      <c r="B106" s="116" t="s">
+      <c r="A106" s="45"/>
+      <c r="B106" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C106" s="116" t="s">
+      <c r="C106" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="116"/>
-      <c r="E106" s="151"/>
-      <c r="F106" s="134"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="50"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="126"/>
-      <c r="B107" s="116" t="s">
+      <c r="A107" s="45"/>
+      <c r="B107" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C107" s="116" t="s">
+      <c r="C107" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D107" s="116"/>
-      <c r="E107" s="151"/>
-      <c r="F107" s="134"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="50"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="126"/>
-      <c r="B108" s="116" t="s">
+      <c r="A108" s="45"/>
+      <c r="B108" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C108" s="116" t="s">
+      <c r="C108" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D108" s="116"/>
-      <c r="E108" s="151"/>
-      <c r="F108" s="134"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="50"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="126"/>
-      <c r="B109" s="116"/>
-      <c r="C109" s="116"/>
-      <c r="D109" s="116"/>
-      <c r="E109" s="151"/>
-      <c r="F109" s="134"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="50"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="126"/>
-      <c r="B110" s="116" t="s">
+      <c r="A110" s="45"/>
+      <c r="B110" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C110" s="135" t="s">
+      <c r="C110" s="208" t="s">
         <v>169</v>
       </c>
-      <c r="D110" s="135"/>
-      <c r="E110" s="135"/>
-      <c r="F110" s="134"/>
+      <c r="D110" s="208"/>
+      <c r="E110" s="208"/>
+      <c r="F110" s="50"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="126"/>
-      <c r="B111" s="116" t="s">
+      <c r="A111" s="45"/>
+      <c r="B111" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C111" s="135" t="s">
+      <c r="C111" s="208" t="s">
         <v>170</v>
       </c>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
-      <c r="F111" s="134"/>
+      <c r="D111" s="208"/>
+      <c r="E111" s="208"/>
+      <c r="F111" s="50"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="126"/>
-      <c r="B112" s="116" t="s">
+      <c r="A112" s="45"/>
+      <c r="B112" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C112" s="135" t="s">
+      <c r="C112" s="208" t="s">
         <v>171</v>
       </c>
-      <c r="D112" s="135"/>
-      <c r="E112" s="135"/>
-      <c r="F112" s="134"/>
+      <c r="D112" s="208"/>
+      <c r="E112" s="208"/>
+      <c r="F112" s="50"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="127"/>
-      <c r="B113" s="122" t="s">
+      <c r="A113" s="46"/>
+      <c r="B113" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C113" s="152" t="s">
+      <c r="C113" s="227" t="s">
         <v>172</v>
       </c>
-      <c r="D113" s="152"/>
-      <c r="E113" s="152"/>
-      <c r="F113" s="153"/>
-    </row>
-    <row r="115" spans="1:6" s="104" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="125" t="s">
+      <c r="D113" s="227"/>
+      <c r="E113" s="227"/>
+      <c r="F113" s="56"/>
+    </row>
+    <row r="115" spans="1:6" s="36" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="110" t="s">
+      <c r="B115" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="C115" s="110"/>
-      <c r="D115" s="110"/>
-      <c r="E115" s="110"/>
+      <c r="C115" s="137"/>
+      <c r="D115" s="137"/>
+      <c r="E115" s="137"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="126"/>
-      <c r="B116" s="116" t="s">
+      <c r="A116" s="45"/>
+      <c r="B116" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C116" s="133" t="s">
+      <c r="C116" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="D116" s="133"/>
-      <c r="E116" s="134"/>
+      <c r="D116" s="209"/>
+      <c r="E116" s="50"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="126"/>
-      <c r="B117" s="116" t="s">
+      <c r="A117" s="45"/>
+      <c r="B117" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C117" s="117" t="s">
+      <c r="C117" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D117" s="117"/>
-      <c r="E117" s="134"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="50"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="126"/>
-      <c r="B118" s="116" t="s">
+      <c r="A118" s="45"/>
+      <c r="B118" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C118" s="116" t="s">
+      <c r="C118" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="D118" s="116"/>
-      <c r="E118" s="134"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="50"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="126"/>
-      <c r="B119" s="116" t="s">
+      <c r="A119" s="45"/>
+      <c r="B119" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C119" s="133" t="s">
+      <c r="C119" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="D119" s="133"/>
-      <c r="E119" s="134"/>
+      <c r="D119" s="209"/>
+      <c r="E119" s="50"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="126"/>
-      <c r="B120" s="116"/>
-      <c r="C120" s="116"/>
-      <c r="D120" s="116"/>
-      <c r="E120" s="134"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="50"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="126"/>
-      <c r="B121" s="116" t="s">
+      <c r="A121" s="45"/>
+      <c r="B121" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C121" s="135" t="s">
+      <c r="C121" s="208" t="s">
         <v>179</v>
       </c>
-      <c r="D121" s="135"/>
-      <c r="E121" s="134"/>
+      <c r="D121" s="208"/>
+      <c r="E121" s="50"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="126"/>
-      <c r="B122" s="116" t="s">
+      <c r="A122" s="45"/>
+      <c r="B122" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C122" s="135" t="s">
+      <c r="C122" s="208" t="s">
         <v>180</v>
       </c>
-      <c r="D122" s="135"/>
-      <c r="E122" s="154"/>
+      <c r="D122" s="208"/>
+      <c r="E122" s="229"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="126"/>
-      <c r="B123" s="116" t="s">
+      <c r="A123" s="45"/>
+      <c r="B123" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C123" s="135" t="s">
+      <c r="C123" s="208" t="s">
         <v>181</v>
       </c>
-      <c r="D123" s="135"/>
-      <c r="E123" s="154"/>
+      <c r="D123" s="208"/>
+      <c r="E123" s="229"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="126"/>
-      <c r="B124" s="116" t="s">
+      <c r="A124" s="45"/>
+      <c r="B124" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C124" s="135" t="s">
+      <c r="C124" s="208" t="s">
         <v>183</v>
       </c>
-      <c r="D124" s="135"/>
-      <c r="E124" s="154"/>
+      <c r="D124" s="208"/>
+      <c r="E124" s="229"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="127"/>
-      <c r="B125" s="122" t="s">
+      <c r="A125" s="46"/>
+      <c r="B125" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="C125" s="152" t="s">
+      <c r="C125" s="227" t="s">
         <v>182</v>
       </c>
-      <c r="D125" s="152"/>
-      <c r="E125" s="155"/>
+      <c r="D125" s="227"/>
+      <c r="E125" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B17:E17"/>
@@ -8896,62 +8952,6 @@
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="B115:E115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8976,252 +8976,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="234" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="115"/>
-    </row>
-    <row r="3" spans="1:5" s="104" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="125" t="s">
+      <c r="A2" s="235"/>
+    </row>
+    <row r="3" spans="1:5" s="36" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="136"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
-      <c r="B4" s="116" t="s">
+      <c r="A4" s="45"/>
+      <c r="B4" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="134"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
-      <c r="B5" s="116" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="134"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="133" t="s">
+      <c r="C6" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="134"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="126"/>
-      <c r="B7" s="116" t="s">
+      <c r="A7" s="45"/>
+      <c r="B7" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="209" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="134"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="126"/>
-      <c r="B9" s="116" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="208" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="157"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
-      <c r="B10" s="116" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="208" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="154"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="229"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="116" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="208" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="154"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="229"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
-      <c r="B12" s="122" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="227" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="152"/>
-      <c r="E12" s="155"/>
-    </row>
-    <row r="14" spans="1:5" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="125" t="s">
+      <c r="D12" s="227"/>
+      <c r="E12" s="230"/>
+    </row>
+    <row r="14" spans="1:5" s="36" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="164" t="s">
+      <c r="B14" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="142"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="136"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="126"/>
-      <c r="B15" s="116" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="209" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="118"/>
+      <c r="D15" s="209"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
-      <c r="B16" s="116" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="134"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
-      <c r="B17" s="116" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="134"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="209" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="133"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="126"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="134"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="126"/>
-      <c r="B20" s="116" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="208" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="157"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
-      <c r="B21" s="116" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="208" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="154"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="229"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
-      <c r="B22" s="116" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="208" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="154"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="229"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="127"/>
-      <c r="B23" s="122" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="152" t="s">
+      <c r="C23" s="227" t="s">
         <v>204</v>
       </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="155"/>
-    </row>
-    <row r="25" spans="1:5" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="125" t="s">
+      <c r="D23" s="227"/>
+      <c r="E23" s="230"/>
+    </row>
+    <row r="25" spans="1:5" s="36" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="B25" s="164" t="s">
+      <c r="B25" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="142"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="136"/>
     </row>
     <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="126"/>
-      <c r="B26" s="158" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="103"/>
+      <c r="D26" s="233"/>
       <c r="E26" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="126"/>
-      <c r="B27" s="159"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="232"/>
       <c r="C27" s="32" t="s">
         <v>65</v>
       </c>
@@ -9233,8 +9233,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="126"/>
-      <c r="B28" s="160">
+      <c r="A28" s="45"/>
+      <c r="B28" s="58">
         <v>1</v>
       </c>
       <c r="C28" s="8">
@@ -9248,8 +9248,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="126"/>
-      <c r="B29" s="161">
+      <c r="A29" s="45"/>
+      <c r="B29" s="59">
         <v>2</v>
       </c>
       <c r="C29" s="6">
@@ -9263,8 +9263,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="127"/>
-      <c r="B30" s="162">
+      <c r="A30" s="46"/>
+      <c r="B30" s="60">
         <v>3</v>
       </c>
       <c r="C30" s="7">
@@ -9277,33 +9277,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="125" t="s">
+    <row r="32" spans="1:5" s="36" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="142"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="136"/>
     </row>
     <row r="33" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="126"/>
-      <c r="B33" s="158" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="103"/>
+      <c r="D33" s="233"/>
       <c r="E33" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="126"/>
-      <c r="B34" s="159"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="232"/>
       <c r="C34" s="32" t="s">
         <v>65</v>
       </c>
@@ -9315,8 +9315,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="126"/>
-      <c r="B35" s="160">
+      <c r="A35" s="45"/>
+      <c r="B35" s="58">
         <v>1</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -9330,8 +9330,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="126"/>
-      <c r="B36" s="161">
+      <c r="A36" s="45"/>
+      <c r="B36" s="59">
         <v>2</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -9345,8 +9345,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="127"/>
-      <c r="B37" s="162">
+      <c r="A37" s="46"/>
+      <c r="B37" s="60">
         <v>3</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -9360,74 +9360,74 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="175"/>
-      <c r="B38" s="177"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="175"/>
-      <c r="B39" s="177"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="175"/>
-      <c r="B40" s="177"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="175"/>
-      <c r="B41" s="177"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="175"/>
-      <c r="B42" s="177"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="175"/>
-      <c r="B43" s="177"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
     </row>
-    <row r="45" spans="1:5" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="125" t="s">
+    <row r="45" spans="1:5" s="36" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="164" t="s">
+      <c r="B45" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="C45" s="141"/>
-      <c r="D45" s="141"/>
-      <c r="E45" s="142"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="136"/>
     </row>
     <row r="46" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="126"/>
-      <c r="B46" s="158" t="s">
+      <c r="A46" s="45"/>
+      <c r="B46" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="103" t="s">
+      <c r="C46" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="103"/>
+      <c r="D46" s="233"/>
       <c r="E46" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="126"/>
-      <c r="B47" s="159"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="232"/>
       <c r="C47" s="32" t="s">
         <v>65</v>
       </c>
@@ -9439,8 +9439,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="126"/>
-      <c r="B48" s="160">
+      <c r="A48" s="45"/>
+      <c r="B48" s="58">
         <v>1</v>
       </c>
       <c r="C48" s="8">
@@ -9454,8 +9454,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="126"/>
-      <c r="B49" s="161">
+      <c r="A49" s="45"/>
+      <c r="B49" s="59">
         <v>2</v>
       </c>
       <c r="C49" s="6">
@@ -9469,8 +9469,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="127"/>
-      <c r="B50" s="162">
+      <c r="A50" s="46"/>
+      <c r="B50" s="60">
         <v>3</v>
       </c>
       <c r="C50" s="7">
@@ -9483,33 +9483,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="125" t="s">
+    <row r="52" spans="1:5" s="36" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="B52" s="164" t="s">
+      <c r="B52" s="134" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="142"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="136"/>
     </row>
     <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="126"/>
-      <c r="B53" s="158" t="s">
+      <c r="A53" s="45"/>
+      <c r="B53" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="103" t="s">
+      <c r="C53" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="103"/>
+      <c r="D53" s="233"/>
       <c r="E53" s="31" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="126"/>
-      <c r="B54" s="159"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="232"/>
       <c r="C54" s="32" t="s">
         <v>65</v>
       </c>
@@ -9521,8 +9521,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="126"/>
-      <c r="B55" s="160">
+      <c r="A55" s="45"/>
+      <c r="B55" s="58">
         <v>1</v>
       </c>
       <c r="C55" s="8">
@@ -9536,8 +9536,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="126"/>
-      <c r="B56" s="161">
+      <c r="A56" s="45"/>
+      <c r="B56" s="59">
         <v>2</v>
       </c>
       <c r="C56" s="6">
@@ -9551,8 +9551,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="127"/>
-      <c r="B57" s="162">
+      <c r="A57" s="46"/>
+      <c r="B57" s="60">
         <v>3</v>
       </c>
       <c r="C57" s="7">
@@ -9567,6 +9567,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B25:E25"/>
@@ -9583,17 +9594,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9601,6 +9601,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033B803F339AF9444AF2460526736BF28" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8473775d932683d519a4cac31be4dee5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e271b71b-5ecd-47c6-b3ef-79f5552aea02" xmlns:ns4="945f91b0-000c-4621-b09c-d864ef1cb9f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b318f269ea5e08421155f4a01f9908a8" ns3:_="" ns4:_="">
     <xsd:import namespace="e271b71b-5ecd-47c6-b3ef-79f5552aea02"/>
@@ -9771,22 +9786,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B23C0FFF-DD4D-43C2-9311-3F8EDCD66332}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e271b71b-5ecd-47c6-b3ef-79f5552aea02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="945f91b0-000c-4621-b09c-d864ef1cb9f5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8939BAB-B52D-4C9B-88BA-AC1CAD6BF78B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6622A98-D950-4724-8BFE-574F994F62E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9803,29 +9828,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8939BAB-B52D-4C9B-88BA-AC1CAD6BF78B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B23C0FFF-DD4D-43C2-9311-3F8EDCD66332}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e271b71b-5ecd-47c6-b3ef-79f5552aea02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="945f91b0-000c-4621-b09c-d864ef1cb9f5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>